--- a/data/trans_orig/P43A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50813160-F46C-42A8-99A9-63B6FBF4C2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABF37B7F-4E89-4A43-9C59-C4D6532FC293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0436361-F452-46AA-BEA5-1D080E9FC70E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F11C7B3-25C4-4A22-AD14-066E0F4BCF8D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="423">
   <si>
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2007 (Tasa respuesta: 19,14%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>27,91%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,10 +92,10 @@
     <t>39,8%</t>
   </si>
   <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -104,10 +104,10 @@
     <t>15,13%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -116,1216 +116,1198 @@
     <t>17,16%</t>
   </si>
   <si>
-    <t>10,51%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2015 (Tasa respuesta: 24,27%)</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
   </si>
   <si>
     <t>27,21%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>19,7%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
   </si>
   <si>
     <t>21,49%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2015 (Tasa respuesta: 24,27%)</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FCF6D9-4D50-41D3-87AD-782E0F69C3D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F3C646-20A3-4896-A8C1-D95E04A4483A}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2518,10 +2500,10 @@
         <v>51</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -2533,10 +2515,10 @@
         <v>51</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,7 +2572,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2615,13 +2597,13 @@
         <v>49606</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -2630,13 +2612,13 @@
         <v>49606</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2646,13 @@
         <v>39667</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M20" s="7">
         <v>42</v>
@@ -2679,13 +2661,13 @@
         <v>39667</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,13 +2695,13 @@
         <v>38056</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>40</v>
@@ -2728,13 +2710,13 @@
         <v>38056</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2744,13 @@
         <v>24847</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -2777,13 +2759,13 @@
         <v>24847</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2819,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2862,13 +2844,13 @@
         <v>12095</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -2877,13 +2859,13 @@
         <v>12095</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2893,13 @@
         <v>27348</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -2926,13 +2908,13 @@
         <v>27348</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2942,13 @@
         <v>14964</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -2975,13 +2957,13 @@
         <v>14964</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +2991,13 @@
         <v>6974</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M27" s="7">
         <v>7</v>
@@ -3024,13 +3006,13 @@
         <v>6974</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,7 +3066,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3109,13 +3091,13 @@
         <v>24550</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -3124,13 +3106,13 @@
         <v>24550</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3140,13 @@
         <v>34722</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>34</v>
@@ -3173,13 +3155,13 @@
         <v>34722</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,13 +3189,13 @@
         <v>25584</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M31" s="7">
         <v>25</v>
@@ -3222,13 +3204,13 @@
         <v>25584</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3238,13 @@
         <v>21247</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
@@ -3271,13 +3253,13 @@
         <v>21247</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,7 +3313,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3356,13 +3338,13 @@
         <v>73213</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M34" s="7">
         <v>69</v>
@@ -3371,13 +3353,13 @@
         <v>73213</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,13 +3387,13 @@
         <v>88797</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M35" s="7">
         <v>88</v>
@@ -3420,13 +3402,13 @@
         <v>88797</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3436,13 @@
         <v>61548</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="L36" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M36" s="7">
         <v>62</v>
@@ -3469,13 +3451,13 @@
         <v>61548</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3485,13 @@
         <v>52261</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M37" s="7">
         <v>50</v>
@@ -3518,13 +3500,13 @@
         <v>52261</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,7 +3560,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3603,13 +3585,13 @@
         <v>42091</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M39" s="7">
         <v>39</v>
@@ -3618,13 +3600,13 @@
         <v>42091</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3634,13 @@
         <v>105458</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M40" s="7">
         <v>101</v>
@@ -3667,13 +3649,13 @@
         <v>105458</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3683,13 @@
         <v>71812</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M41" s="7">
         <v>70</v>
@@ -3716,13 +3698,13 @@
         <v>71812</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3732,13 @@
         <v>46687</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M42" s="7">
         <v>44</v>
@@ -3765,13 +3747,13 @@
         <v>46687</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3832,13 @@
         <v>304148</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M44" s="7">
         <v>294</v>
@@ -3865,13 +3847,13 @@
         <v>304148</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3881,13 @@
         <v>448321</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M45" s="7">
         <v>442</v>
@@ -3914,13 +3896,13 @@
         <v>448321</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3930,13 @@
         <v>295289</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M46" s="7">
         <v>295</v>
@@ -3963,13 +3945,13 @@
         <v>295289</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +3979,13 @@
         <v>219736</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M47" s="7">
         <v>215</v>
@@ -4012,13 +3994,13 @@
         <v>219736</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,7 +4054,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4096,7 +4078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD4CE04-4EFD-4BE1-853B-DE8E2517ABFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67256FFC-13F1-4942-9D74-6CB050F9EE11}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4113,7 +4095,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4460,13 +4442,13 @@
         <v>39820</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -4475,13 +4457,13 @@
         <v>39820</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4491,13 @@
         <v>89861</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -4524,13 +4506,13 @@
         <v>89861</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4540,13 @@
         <v>54802</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -4573,13 +4555,13 @@
         <v>54802</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4589,13 @@
         <v>33842</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M12" s="7">
         <v>30</v>
@@ -4622,13 +4604,13 @@
         <v>33842</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4689,13 @@
         <v>22823</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -4722,13 +4704,13 @@
         <v>22823</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4738,13 @@
         <v>74903</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M15" s="7">
         <v>68</v>
@@ -4771,13 +4753,13 @@
         <v>74903</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4787,13 @@
         <v>38185</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -4820,13 +4802,13 @@
         <v>38185</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4836,13 @@
         <v>23066</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -4869,13 +4851,13 @@
         <v>23066</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,7 +4911,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5176,7 +5158,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5204,10 +5186,10 @@
         <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -5219,10 +5201,10 @@
         <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5232,13 @@
         <v>39834</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -5265,13 +5247,13 @@
         <v>39834</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5281,13 @@
         <v>29932</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -5314,13 +5296,13 @@
         <v>29932</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5330,13 @@
         <v>9912</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M27" s="7">
         <v>9</v>
@@ -5363,13 +5345,13 @@
         <v>9912</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,7 +5405,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5448,13 +5430,13 @@
         <v>38895</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -5463,13 +5445,13 @@
         <v>38895</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,13 +5479,13 @@
         <v>55636</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -5512,13 +5494,13 @@
         <v>55636</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,7 +5528,7 @@
         <v>29299</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>185</v>
@@ -5561,7 +5543,7 @@
         <v>29299</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>185</v>
@@ -5670,7 +5652,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -5701,7 +5683,7 @@
         <v>191</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="M34" s="7">
         <v>65</v>
@@ -5716,7 +5698,7 @@
         <v>191</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,13 +5726,13 @@
         <v>132521</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M35" s="7">
         <v>117</v>
@@ -5759,13 +5741,13 @@
         <v>132521</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5775,13 @@
         <v>85109</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M36" s="7">
         <v>77</v>
@@ -5808,13 +5790,13 @@
         <v>85109</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5824,13 @@
         <v>63041</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -5857,13 +5839,13 @@
         <v>63041</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,7 +5899,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -5942,13 +5924,13 @@
         <v>75917</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M39" s="7">
         <v>69</v>
@@ -5957,13 +5939,13 @@
         <v>75917</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +5973,13 @@
         <v>137767</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M40" s="7">
         <v>124</v>
@@ -6006,13 +5988,13 @@
         <v>137767</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,13 +6022,13 @@
         <v>99737</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M41" s="7">
         <v>89</v>
@@ -6055,13 +6037,13 @@
         <v>99737</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6071,13 @@
         <v>47764</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M42" s="7">
         <v>43</v>
@@ -6104,13 +6086,13 @@
         <v>47764</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6171,13 @@
         <v>342072</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M44" s="7">
         <v>312</v>
@@ -6204,13 +6186,13 @@
         <v>342072</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6220,13 @@
         <v>637154</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M45" s="7">
         <v>583</v>
@@ -6253,13 +6235,13 @@
         <v>637154</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6269,13 @@
         <v>443451</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M46" s="7">
         <v>408</v>
@@ -6302,13 +6284,13 @@
         <v>443451</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6318,13 @@
         <v>241443</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M47" s="7">
         <v>217</v>
@@ -6351,13 +6333,13 @@
         <v>241443</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,7 +6393,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6435,7 +6417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AEA053-9AC0-4A28-9F5E-DB2C2421D401}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05364792-3E97-468A-81F2-2E082B0EDCA2}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6452,7 +6434,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6572,13 +6554,13 @@
         <v>36957</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6587,13 +6569,13 @@
         <v>36957</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,13 +6603,13 @@
         <v>41811</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -6636,13 +6618,13 @@
         <v>41811</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,13 +6652,13 @@
         <v>49198</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -6685,13 +6667,13 @@
         <v>49198</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,13 +6701,13 @@
         <v>16447</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -6734,13 +6716,13 @@
         <v>16447</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6819,13 +6801,13 @@
         <v>54020</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -6834,13 +6816,13 @@
         <v>54020</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,13 +6850,13 @@
         <v>138064</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -6883,13 +6865,13 @@
         <v>138064</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6917,13 +6899,13 @@
         <v>45627</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M11" s="7">
         <v>41</v>
@@ -6932,13 +6914,13 @@
         <v>45627</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6966,13 +6948,13 @@
         <v>28465</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -6981,13 +6963,13 @@
         <v>28465</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,13 +7048,13 @@
         <v>41553</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -7081,13 +7063,13 @@
         <v>41553</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,7 +7152,7 @@
         <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -7185,7 +7167,7 @@
         <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,13 +7195,13 @@
         <v>20834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -7228,13 +7210,13 @@
         <v>20834</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7288,7 +7270,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7313,13 +7295,13 @@
         <v>49524</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -7328,13 +7310,13 @@
         <v>49524</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7362,13 +7344,13 @@
         <v>77314</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>70</v>
@@ -7377,13 +7359,13 @@
         <v>77314</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,13 +7393,13 @@
         <v>50093</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>265</v>
+        <v>37</v>
       </c>
       <c r="M21" s="7">
         <v>45</v>
@@ -7426,13 +7408,13 @@
         <v>50093</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>265</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7442,13 @@
         <v>27057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -7475,13 +7457,13 @@
         <v>27057</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,7 +7517,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7560,13 +7542,13 @@
         <v>47563</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
@@ -7575,13 +7557,13 @@
         <v>47563</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,13 +7591,13 @@
         <v>42223</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -7624,13 +7606,13 @@
         <v>42223</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7658,13 +7640,13 @@
         <v>16948</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -7673,13 +7655,13 @@
         <v>16948</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,13 +7689,13 @@
         <v>7959</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -7722,13 +7704,13 @@
         <v>7959</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7782,7 +7764,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -7807,13 +7789,13 @@
         <v>41462</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -7822,13 +7804,13 @@
         <v>41462</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,13 +7838,13 @@
         <v>49308</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M30" s="7">
         <v>47</v>
@@ -7871,13 +7853,13 @@
         <v>49308</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7905,13 +7887,13 @@
         <v>21466</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="M31" s="7">
         <v>21</v>
@@ -7920,13 +7902,13 @@
         <v>21466</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,7 +8011,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -8054,13 +8036,13 @@
         <v>61631</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M34" s="7">
         <v>52</v>
@@ -8069,13 +8051,13 @@
         <v>61631</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,13 +8085,13 @@
         <v>123527</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M35" s="7">
         <v>112</v>
@@ -8118,13 +8100,13 @@
         <v>123527</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8152,13 +8134,13 @@
         <v>67947</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M36" s="7">
         <v>62</v>
@@ -8167,13 +8149,13 @@
         <v>67947</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8201,13 +8183,13 @@
         <v>35419</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>304</v>
+        <v>178</v>
       </c>
       <c r="M37" s="7">
         <v>31</v>
@@ -8216,13 +8198,13 @@
         <v>35419</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>304</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,7 +8258,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -8301,13 +8283,13 @@
         <v>96281</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>178</v>
+        <v>304</v>
       </c>
       <c r="M39" s="7">
         <v>81</v>
@@ -8316,13 +8298,13 @@
         <v>96281</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>178</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8350,13 +8332,13 @@
         <v>154394</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M40" s="7">
         <v>135</v>
@@ -8365,13 +8347,13 @@
         <v>154394</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8399,13 +8381,13 @@
         <v>114797</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K41" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="L41" s="7" t="s">
-        <v>311</v>
+        <v>169</v>
       </c>
       <c r="M41" s="7">
         <v>101</v>
@@ -8414,13 +8396,13 @@
         <v>114797</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P41" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="Q41" s="7" t="s">
-        <v>311</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8448,13 +8430,13 @@
         <v>48522</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M42" s="7">
         <v>43</v>
@@ -8463,13 +8445,13 @@
         <v>48522</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8548,13 +8530,13 @@
         <v>428991</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M44" s="7">
         <v>376</v>
@@ -8563,13 +8545,13 @@
         <v>428991</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8597,13 +8579,13 @@
         <v>706027</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M45" s="7">
         <v>647</v>
@@ -8612,13 +8594,13 @@
         <v>706027</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8646,13 +8628,13 @@
         <v>412300</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>322</v>
+        <v>112</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>323</v>
+        <v>125</v>
       </c>
       <c r="M46" s="7">
         <v>380</v>
@@ -8661,13 +8643,13 @@
         <v>412300</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>322</v>
+        <v>112</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>323</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8695,13 +8677,13 @@
         <v>208909</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M47" s="7">
         <v>191</v>
@@ -8710,13 +8692,13 @@
         <v>208909</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8770,7 +8752,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -8794,7 +8776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1E9EA2-E7FE-4A4F-8CC7-A45078B938AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E71B22-71F3-41F6-94D1-541D48831E57}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8811,7 +8793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8931,13 +8913,13 @@
         <v>34239</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -8946,13 +8928,13 @@
         <v>34239</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8980,13 +8962,13 @@
         <v>39832</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M5" s="7">
         <v>87</v>
@@ -8995,13 +8977,13 @@
         <v>39832</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9029,13 +9011,13 @@
         <v>14068</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
@@ -9044,13 +9026,13 @@
         <v>14068</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9078,13 +9060,13 @@
         <v>24000</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -9093,13 +9075,13 @@
         <v>24000</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9178,13 +9160,13 @@
         <v>115839</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M9" s="7">
         <v>166</v>
@@ -9193,13 +9175,13 @@
         <v>115839</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9227,13 +9209,13 @@
         <v>71183</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>96</v>
@@ -9242,13 +9224,13 @@
         <v>71183</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9276,13 +9258,13 @@
         <v>27274</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>345</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -9291,13 +9273,13 @@
         <v>27274</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9325,13 +9307,13 @@
         <v>23568</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>344</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M12" s="7">
         <v>36</v>
@@ -9340,13 +9322,13 @@
         <v>23568</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>344</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9425,13 +9407,13 @@
         <v>54652</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M14" s="7">
         <v>97</v>
@@ -9440,13 +9422,13 @@
         <v>54652</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9474,13 +9456,13 @@
         <v>38317</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>353</v>
+        <v>293</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M15" s="7">
         <v>63</v>
@@ -9489,13 +9471,13 @@
         <v>38317</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>353</v>
+        <v>293</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9523,13 +9505,13 @@
         <v>29512</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>356</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -9538,13 +9520,13 @@
         <v>29512</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>356</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9572,13 +9554,13 @@
         <v>22786</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -9587,13 +9569,13 @@
         <v>22786</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9647,7 +9629,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -9672,13 +9654,13 @@
         <v>74871</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -9687,13 +9669,13 @@
         <v>74871</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9721,13 +9703,13 @@
         <v>50388</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -9736,13 +9718,13 @@
         <v>50388</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9770,13 +9752,13 @@
         <v>23797</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -9785,13 +9767,13 @@
         <v>23797</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9819,13 +9801,13 @@
         <v>20066</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -9834,13 +9816,13 @@
         <v>20066</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9894,7 +9876,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9919,13 +9901,13 @@
         <v>37746</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M24" s="7">
         <v>93</v>
@@ -9934,13 +9916,13 @@
         <v>37746</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9968,13 +9950,13 @@
         <v>46392</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>97</v>
+        <v>373</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -9983,13 +9965,13 @@
         <v>46392</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>97</v>
+        <v>373</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10017,13 +9999,13 @@
         <v>33613</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>381</v>
+        <v>88</v>
       </c>
       <c r="M26" s="7">
         <v>76</v>
@@ -10032,13 +10014,13 @@
         <v>33613</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>381</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10066,13 +10048,13 @@
         <v>4941</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -10081,13 +10063,13 @@
         <v>4941</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10141,7 +10123,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -10166,13 +10148,13 @@
         <v>37307</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M29" s="7">
         <v>90</v>
@@ -10181,13 +10163,13 @@
         <v>37307</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10215,13 +10197,13 @@
         <v>35762</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M30" s="7">
         <v>65</v>
@@ -10230,13 +10212,13 @@
         <v>35762</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10264,13 +10246,13 @@
         <v>34744</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M31" s="7">
         <v>65</v>
@@ -10279,13 +10261,13 @@
         <v>34744</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10313,13 +10295,13 @@
         <v>12067</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
@@ -10328,13 +10310,13 @@
         <v>12067</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10388,7 +10370,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -10413,13 +10395,13 @@
         <v>73627</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>58</v>
+        <v>392</v>
       </c>
       <c r="M34" s="7">
         <v>112</v>
@@ -10428,13 +10410,13 @@
         <v>73627</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>58</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10462,13 +10444,13 @@
         <v>189022</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M35" s="7">
         <v>118</v>
@@ -10477,13 +10459,13 @@
         <v>189022</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10511,13 +10493,13 @@
         <v>96000</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>402</v>
+        <v>59</v>
       </c>
       <c r="M36" s="7">
         <v>145</v>
@@ -10526,13 +10508,13 @@
         <v>96000</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>402</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10560,13 +10542,13 @@
         <v>52259</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M37" s="7">
         <v>73</v>
@@ -10575,13 +10557,13 @@
         <v>52259</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10635,7 +10617,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -10660,13 +10642,13 @@
         <v>70033</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M39" s="7">
         <v>105</v>
@@ -10675,13 +10657,13 @@
         <v>70033</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10709,13 +10691,13 @@
         <v>91900</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M40" s="7">
         <v>133</v>
@@ -10724,13 +10706,13 @@
         <v>91900</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10758,13 +10740,13 @@
         <v>80026</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M41" s="7">
         <v>105</v>
@@ -10773,13 +10755,13 @@
         <v>80026</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10807,13 +10789,13 @@
         <v>18149</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M42" s="7">
         <v>23</v>
@@ -10822,13 +10804,13 @@
         <v>18149</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10907,13 +10889,13 @@
         <v>498313</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>419</v>
+        <v>149</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M44" s="7">
         <v>867</v>
@@ -10922,13 +10904,13 @@
         <v>498313</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>419</v>
+        <v>149</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10956,13 +10938,13 @@
         <v>562797</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="M45" s="7">
         <v>765</v>
@@ -10971,13 +10953,13 @@
         <v>562797</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -11005,13 +10987,13 @@
         <v>339034</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>179</v>
+        <v>417</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M46" s="7">
         <v>548</v>
@@ -11020,13 +11002,13 @@
         <v>339034</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>179</v>
+        <v>417</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11054,13 +11036,13 @@
         <v>177837</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M47" s="7">
         <v>279</v>
@@ -11069,13 +11051,13 @@
         <v>177837</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11129,7 +11111,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABF37B7F-4E89-4A43-9C59-C4D6532FC293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A91CF6E6-1CDB-4C40-83EB-67CA52FDF8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F11C7B3-25C4-4A22-AD14-066E0F4BCF8D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD9A456F-9AB2-47F4-93E3-290EBD6F5B36}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="428">
   <si>
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2007 (Tasa respuesta: 19,14%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>27,91%</t>
   </si>
   <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,10 +92,10 @@
     <t>39,8%</t>
   </si>
   <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -104,10 +104,10 @@
     <t>15,13%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -116,10 +116,10 @@
     <t>17,16%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,37 +131,37 @@
     <t>27,12%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
   </si>
   <si>
     <t>37,4%</t>
   </si>
   <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -170,34 +170,37 @@
     <t>21,03%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
   </si>
   <si>
     <t>36,16%</t>
   </si>
   <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
   </si>
   <si>
     <t>16,99%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
   </si>
   <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>34,08%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -206,1033 +209,1045 @@
     <t>32,6%</t>
   </si>
   <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>19,67%</t>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2016 (Tasa respuesta: 24,27%)</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>33,15%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2015 (Tasa respuesta: 24,27%)</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
   </si>
   <si>
     <t>12,72%</t>
@@ -1719,7 +1734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F3C646-20A3-4896-A8C1-D95E04A4483A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89A3110-AC04-42E2-957C-FC7B166CD6C7}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2500,10 +2515,10 @@
         <v>51</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -2515,10 +2530,10 @@
         <v>51</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,7 +2587,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2597,13 +2612,13 @@
         <v>49606</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -2612,13 +2627,13 @@
         <v>49606</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2661,13 @@
         <v>39667</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M20" s="7">
         <v>42</v>
@@ -2661,13 +2676,13 @@
         <v>39667</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2710,13 @@
         <v>38056</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>40</v>
@@ -2710,13 +2725,13 @@
         <v>38056</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2759,13 @@
         <v>24847</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -2759,13 +2774,13 @@
         <v>24847</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,7 +2834,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2844,13 +2859,13 @@
         <v>12095</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -2859,13 +2874,13 @@
         <v>12095</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2908,13 @@
         <v>27348</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -2908,13 +2923,13 @@
         <v>27348</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2957,13 @@
         <v>14964</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -2957,13 +2972,13 @@
         <v>14964</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,13 +3006,13 @@
         <v>6974</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M27" s="7">
         <v>7</v>
@@ -3006,13 +3021,13 @@
         <v>6974</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,7 +3081,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3091,13 +3106,13 @@
         <v>24550</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -3106,13 +3121,13 @@
         <v>24550</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3155,13 @@
         <v>34722</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>34</v>
@@ -3155,13 +3170,13 @@
         <v>34722</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3204,13 @@
         <v>25584</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M31" s="7">
         <v>25</v>
@@ -3204,13 +3219,13 @@
         <v>25584</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,13 +3253,13 @@
         <v>21247</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
@@ -3253,13 +3268,13 @@
         <v>21247</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3328,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3338,13 +3353,13 @@
         <v>73213</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M34" s="7">
         <v>69</v>
@@ -3353,13 +3368,13 @@
         <v>73213</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3402,13 @@
         <v>88797</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M35" s="7">
         <v>88</v>
@@ -3402,13 +3417,13 @@
         <v>88797</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3451,13 @@
         <v>61548</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M36" s="7">
         <v>62</v>
@@ -3451,13 +3466,13 @@
         <v>61548</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3500,13 @@
         <v>52261</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="M37" s="7">
         <v>50</v>
@@ -3500,13 +3515,13 @@
         <v>52261</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,7 +3575,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3585,13 +3600,13 @@
         <v>42091</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="M39" s="7">
         <v>39</v>
@@ -3600,13 +3615,13 @@
         <v>42091</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,7 +4093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67256FFC-13F1-4942-9D74-6CB050F9EE11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BC11E2-12C8-4F6A-A200-D7A14CB8F734}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4842,7 +4857,7 @@
         <v>153</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -4857,7 +4872,7 @@
         <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,7 +4926,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4936,13 +4951,13 @@
         <v>68250</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -4951,13 +4966,13 @@
         <v>68250</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +5000,13 @@
         <v>106632</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M20" s="7">
         <v>101</v>
@@ -5000,13 +5015,13 @@
         <v>106632</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5049,13 @@
         <v>106387</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M21" s="7">
         <v>100</v>
@@ -5049,13 +5064,13 @@
         <v>106387</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5098,13 @@
         <v>51501</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -5098,13 +5113,13 @@
         <v>51501</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,7 +5173,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5183,13 +5198,13 @@
         <v>25202</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -5198,13 +5213,13 @@
         <v>25202</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5247,13 @@
         <v>39834</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -5247,13 +5262,13 @@
         <v>39834</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5296,13 @@
         <v>29932</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -5296,13 +5311,13 @@
         <v>29932</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5345,13 @@
         <v>9912</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M27" s="7">
         <v>9</v>
@@ -5345,13 +5360,13 @@
         <v>9912</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,7 +5420,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5430,13 +5445,13 @@
         <v>38895</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -5445,13 +5460,13 @@
         <v>38895</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5494,13 @@
         <v>55636</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -5494,13 +5509,13 @@
         <v>55636</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5543,13 @@
         <v>29299</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M31" s="7">
         <v>28</v>
@@ -5543,13 +5558,13 @@
         <v>29299</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5592,13 @@
         <v>12316</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -5592,13 +5607,13 @@
         <v>12316</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,7 +5667,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -5677,13 +5692,13 @@
         <v>71164</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="M34" s="7">
         <v>65</v>
@@ -5692,13 +5707,13 @@
         <v>71164</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5741,13 @@
         <v>132521</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M35" s="7">
         <v>117</v>
@@ -5741,13 +5756,13 @@
         <v>132521</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5790,13 @@
         <v>85109</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M36" s="7">
         <v>77</v>
@@ -5790,13 +5805,13 @@
         <v>85109</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5839,13 @@
         <v>63041</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -5839,13 +5854,13 @@
         <v>63041</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,7 +5914,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -5924,13 +5939,13 @@
         <v>75917</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M39" s="7">
         <v>69</v>
@@ -5939,13 +5954,13 @@
         <v>75917</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5988,13 @@
         <v>137767</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M40" s="7">
         <v>124</v>
@@ -5988,13 +6003,13 @@
         <v>137767</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +6037,13 @@
         <v>99737</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M41" s="7">
         <v>89</v>
@@ -6037,13 +6052,13 @@
         <v>99737</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6086,13 @@
         <v>47764</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M42" s="7">
         <v>43</v>
@@ -6086,13 +6101,13 @@
         <v>47764</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6186,13 @@
         <v>342072</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M44" s="7">
         <v>312</v>
@@ -6186,13 +6201,13 @@
         <v>342072</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6235,13 @@
         <v>637154</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M45" s="7">
         <v>583</v>
@@ -6235,13 +6250,13 @@
         <v>637154</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,13 +6284,13 @@
         <v>443451</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M46" s="7">
         <v>408</v>
@@ -6284,13 +6299,13 @@
         <v>443451</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,10 +6336,10 @@
         <v>152</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M47" s="7">
         <v>217</v>
@@ -6336,10 +6351,10 @@
         <v>152</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,7 +6432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05364792-3E97-468A-81F2-2E082B0EDCA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B03EDB3-C79B-42BD-930D-FB9A4731EC1F}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6434,7 +6449,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6554,13 +6569,13 @@
         <v>36957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6569,13 +6584,13 @@
         <v>36957</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,13 +6618,13 @@
         <v>41811</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -6618,13 +6633,13 @@
         <v>41811</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6667,13 @@
         <v>49198</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -6667,13 +6682,13 @@
         <v>49198</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6701,13 +6716,13 @@
         <v>16447</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -6716,13 +6731,13 @@
         <v>16447</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6801,13 +6816,13 @@
         <v>54020</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -6816,13 +6831,13 @@
         <v>54020</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6865,13 @@
         <v>138064</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -6865,13 +6880,13 @@
         <v>138064</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,13 +6914,13 @@
         <v>45627</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>41</v>
@@ -6914,13 +6929,13 @@
         <v>45627</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6948,13 +6963,13 @@
         <v>28465</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -6963,13 +6978,13 @@
         <v>28465</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,13 +7063,13 @@
         <v>41553</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -7063,13 +7078,13 @@
         <v>41553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,13 +7112,13 @@
         <v>79386</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M15" s="7">
         <v>77</v>
@@ -7112,13 +7127,13 @@
         <v>79386</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7161,13 @@
         <v>46225</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -7161,13 +7176,13 @@
         <v>46225</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,13 +7210,13 @@
         <v>20834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>49</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -7210,13 +7225,13 @@
         <v>20834</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>256</v>
+        <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7270,7 +7285,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7295,13 +7310,13 @@
         <v>49524</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -7310,13 +7325,13 @@
         <v>49524</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7344,13 +7359,13 @@
         <v>77314</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>70</v>
@@ -7359,13 +7374,13 @@
         <v>77314</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,13 +7408,13 @@
         <v>50093</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="M21" s="7">
         <v>45</v>
@@ -7408,13 +7423,13 @@
         <v>50093</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7442,13 +7457,13 @@
         <v>27057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -7457,13 +7472,13 @@
         <v>27057</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7517,7 +7532,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7542,13 +7557,13 @@
         <v>47563</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
@@ -7557,13 +7572,13 @@
         <v>47563</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,13 +7606,13 @@
         <v>42223</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -7606,13 +7621,13 @@
         <v>42223</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,13 +7655,13 @@
         <v>16948</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -7655,13 +7670,13 @@
         <v>16948</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7704,13 @@
         <v>7959</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -7704,13 +7719,13 @@
         <v>7959</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7764,7 +7779,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -7789,13 +7804,13 @@
         <v>41462</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -7804,13 +7819,13 @@
         <v>41462</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,13 +7853,13 @@
         <v>49308</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M30" s="7">
         <v>47</v>
@@ -7853,13 +7868,13 @@
         <v>49308</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7887,13 +7902,13 @@
         <v>21466</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="M31" s="7">
         <v>21</v>
@@ -7902,13 +7917,13 @@
         <v>21466</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,13 +7951,13 @@
         <v>24206</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M32" s="7">
         <v>23</v>
@@ -7951,13 +7966,13 @@
         <v>24206</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,7 +8026,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -8036,13 +8051,13 @@
         <v>61631</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>112</v>
+        <v>290</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>293</v>
+        <v>111</v>
       </c>
       <c r="M34" s="7">
         <v>52</v>
@@ -8051,13 +8066,13 @@
         <v>61631</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>112</v>
+        <v>290</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>293</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8085,13 +8100,13 @@
         <v>123527</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M35" s="7">
         <v>112</v>
@@ -8100,13 +8115,13 @@
         <v>123527</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,13 +8149,13 @@
         <v>67947</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M36" s="7">
         <v>62</v>
@@ -8149,13 +8164,13 @@
         <v>67947</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8183,13 +8198,13 @@
         <v>35419</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M37" s="7">
         <v>31</v>
@@ -8198,13 +8213,13 @@
         <v>35419</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,7 +8273,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -8283,13 +8298,13 @@
         <v>96281</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M39" s="7">
         <v>81</v>
@@ -8298,13 +8313,13 @@
         <v>96281</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8332,13 +8347,13 @@
         <v>154394</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M40" s="7">
         <v>135</v>
@@ -8347,13 +8362,13 @@
         <v>154394</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8381,13 +8396,13 @@
         <v>114797</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M41" s="7">
         <v>101</v>
@@ -8396,13 +8411,13 @@
         <v>114797</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8631,10 +8646,10 @@
         <v>319</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>112</v>
+        <v>320</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>125</v>
+        <v>321</v>
       </c>
       <c r="M46" s="7">
         <v>380</v>
@@ -8646,10 +8661,10 @@
         <v>319</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>112</v>
+        <v>320</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>125</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8677,13 +8692,13 @@
         <v>208909</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M47" s="7">
         <v>191</v>
@@ -8692,13 +8707,13 @@
         <v>208909</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8776,7 +8791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E71B22-71F3-41F6-94D1-541D48831E57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0A5A91-4A77-455F-9354-EA6249560254}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8793,7 +8808,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8913,13 +8928,13 @@
         <v>34239</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -8928,13 +8943,13 @@
         <v>34239</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8962,13 +8977,13 @@
         <v>39832</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>87</v>
@@ -8977,13 +8992,13 @@
         <v>39832</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9011,13 +9026,13 @@
         <v>14068</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
@@ -9026,13 +9041,13 @@
         <v>14068</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9060,13 +9075,13 @@
         <v>24000</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -9075,13 +9090,13 @@
         <v>24000</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9160,13 +9175,13 @@
         <v>115839</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M9" s="7">
         <v>166</v>
@@ -9175,13 +9190,13 @@
         <v>115839</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9209,13 +9224,13 @@
         <v>71183</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M10" s="7">
         <v>96</v>
@@ -9224,13 +9239,13 @@
         <v>71183</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9258,13 +9273,13 @@
         <v>27274</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>343</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -9273,13 +9288,13 @@
         <v>27274</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9307,13 +9322,13 @@
         <v>23568</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M12" s="7">
         <v>36</v>
@@ -9322,13 +9337,13 @@
         <v>23568</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9407,13 +9422,13 @@
         <v>54652</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M14" s="7">
         <v>97</v>
@@ -9422,13 +9437,13 @@
         <v>54652</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9456,13 +9471,13 @@
         <v>38317</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>293</v>
+        <v>352</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M15" s="7">
         <v>63</v>
@@ -9471,13 +9486,13 @@
         <v>38317</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>293</v>
+        <v>352</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9505,13 +9520,13 @@
         <v>29512</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -9520,13 +9535,13 @@
         <v>29512</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>355</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9554,13 +9569,13 @@
         <v>22786</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -9569,13 +9584,13 @@
         <v>22786</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9629,7 +9644,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -9654,13 +9669,13 @@
         <v>74871</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -9669,13 +9684,13 @@
         <v>74871</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9703,13 +9718,13 @@
         <v>50388</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -9718,13 +9733,13 @@
         <v>50388</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9752,13 +9767,13 @@
         <v>23797</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -9767,13 +9782,13 @@
         <v>23797</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9801,13 +9816,13 @@
         <v>20066</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -9816,13 +9831,13 @@
         <v>20066</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9876,7 +9891,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9901,13 +9916,13 @@
         <v>37746</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M24" s="7">
         <v>93</v>
@@ -9916,13 +9931,13 @@
         <v>37746</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9950,13 +9965,13 @@
         <v>46392</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -9965,13 +9980,13 @@
         <v>46392</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9999,13 +10014,13 @@
         <v>33613</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>88</v>
+        <v>379</v>
       </c>
       <c r="M26" s="7">
         <v>76</v>
@@ -10014,13 +10029,13 @@
         <v>33613</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>88</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10048,13 +10063,13 @@
         <v>4941</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -10063,13 +10078,13 @@
         <v>4941</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10123,7 +10138,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -10148,13 +10163,13 @@
         <v>37307</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M29" s="7">
         <v>90</v>
@@ -10163,13 +10178,13 @@
         <v>37307</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10197,13 +10212,13 @@
         <v>35762</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M30" s="7">
         <v>65</v>
@@ -10212,13 +10227,13 @@
         <v>35762</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10246,13 +10261,13 @@
         <v>34744</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M31" s="7">
         <v>65</v>
@@ -10261,13 +10276,13 @@
         <v>34744</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10295,13 +10310,13 @@
         <v>12067</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>236</v>
+        <v>394</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
@@ -10310,13 +10325,13 @@
         <v>12067</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10370,7 +10385,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -10395,13 +10410,13 @@
         <v>73627</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M34" s="7">
         <v>112</v>
@@ -10410,13 +10425,13 @@
         <v>73627</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10444,13 +10459,13 @@
         <v>189022</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M35" s="7">
         <v>118</v>
@@ -10459,13 +10474,13 @@
         <v>189022</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10493,13 +10508,13 @@
         <v>96000</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>59</v>
+        <v>402</v>
       </c>
       <c r="M36" s="7">
         <v>145</v>
@@ -10508,13 +10523,13 @@
         <v>96000</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>59</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10542,13 +10557,13 @@
         <v>52259</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M37" s="7">
         <v>73</v>
@@ -10557,13 +10572,13 @@
         <v>52259</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10617,7 +10632,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -10642,13 +10657,13 @@
         <v>70033</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M39" s="7">
         <v>105</v>
@@ -10657,13 +10672,13 @@
         <v>70033</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10691,13 +10706,13 @@
         <v>91900</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M40" s="7">
         <v>133</v>
@@ -10706,13 +10721,13 @@
         <v>91900</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10740,13 +10755,13 @@
         <v>80026</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M41" s="7">
         <v>105</v>
@@ -10755,13 +10770,13 @@
         <v>80026</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10789,13 +10804,13 @@
         <v>18149</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M42" s="7">
         <v>23</v>
@@ -10804,13 +10819,13 @@
         <v>18149</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10889,13 +10904,13 @@
         <v>498313</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>149</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="M44" s="7">
         <v>867</v>
@@ -10904,13 +10919,13 @@
         <v>498313</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>149</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10938,13 +10953,13 @@
         <v>562797</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M45" s="7">
         <v>765</v>
@@ -10953,13 +10968,13 @@
         <v>562797</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10987,13 +11002,13 @@
         <v>339034</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M46" s="7">
         <v>548</v>
@@ -11002,13 +11017,13 @@
         <v>339034</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11036,13 +11051,13 @@
         <v>177837</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="M47" s="7">
         <v>279</v>
@@ -11051,13 +11066,13 @@
         <v>177837</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A91CF6E6-1CDB-4C40-83EB-67CA52FDF8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43619261-64B7-4C1C-AB91-5550734061C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD9A456F-9AB2-47F4-93E3-290EBD6F5B36}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{372D7D98-A4A0-4B53-AE45-7A5222C7CE22}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="429">
   <si>
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2007 (Tasa respuesta: 19,14%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>27,91%</t>
   </si>
   <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,10 +92,10 @@
     <t>39,8%</t>
   </si>
   <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -104,1225 +104,1228 @@
     <t>15,13%</t>
   </si>
   <si>
-    <t>8,18%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2016 (Tasa respuesta: 24,27%)</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2016 (Tasa respuesta: 24,27%)</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
+    <t>34,72%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89A3110-AC04-42E2-957C-FC7B166CD6C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4377DCA-6CEE-4EF7-9731-7FBC0516282B}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3506,7 +3509,7 @@
         <v>104</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="M37" s="7">
         <v>50</v>
@@ -3521,7 +3524,7 @@
         <v>104</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,7 +3578,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3600,13 +3603,13 @@
         <v>42091</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="M39" s="7">
         <v>39</v>
@@ -3615,13 +3618,13 @@
         <v>42091</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3652,13 @@
         <v>105458</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M40" s="7">
         <v>101</v>
@@ -3664,13 +3667,13 @@
         <v>105458</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3701,13 @@
         <v>71812</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M41" s="7">
         <v>70</v>
@@ -3713,13 +3716,13 @@
         <v>71812</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3750,13 @@
         <v>46687</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M42" s="7">
         <v>44</v>
@@ -3762,13 +3765,13 @@
         <v>46687</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3850,13 @@
         <v>304148</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M44" s="7">
         <v>294</v>
@@ -3862,13 +3865,13 @@
         <v>304148</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3899,13 @@
         <v>448321</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M45" s="7">
         <v>442</v>
@@ -3911,13 +3914,13 @@
         <v>448321</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3948,13 @@
         <v>295289</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M46" s="7">
         <v>295</v>
@@ -3960,13 +3963,13 @@
         <v>295289</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +3997,13 @@
         <v>219736</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M47" s="7">
         <v>215</v>
@@ -4009,13 +4012,13 @@
         <v>219736</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,7 +4072,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4093,7 +4096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BC11E2-12C8-4F6A-A200-D7A14CB8F734}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5AFBDD-606A-4F00-B413-5A813B1CC090}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4110,7 +4113,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4457,13 +4460,13 @@
         <v>39820</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -4472,13 +4475,13 @@
         <v>39820</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4509,13 @@
         <v>89861</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -4521,13 +4524,13 @@
         <v>89861</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4558,13 @@
         <v>54802</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -4570,13 +4573,13 @@
         <v>54802</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4607,13 @@
         <v>33842</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="M12" s="7">
         <v>30</v>
@@ -4619,13 +4622,13 @@
         <v>33842</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4707,13 @@
         <v>22823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -4719,13 +4722,13 @@
         <v>22823</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4756,13 @@
         <v>74903</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M15" s="7">
         <v>68</v>
@@ -4768,13 +4771,13 @@
         <v>74903</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4805,13 @@
         <v>38185</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -4817,13 +4820,13 @@
         <v>38185</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +4854,13 @@
         <v>23066</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -4866,13 +4869,13 @@
         <v>23066</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,13 +4954,13 @@
         <v>68250</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -4966,13 +4969,13 @@
         <v>68250</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5003,13 @@
         <v>106632</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M20" s="7">
         <v>101</v>
@@ -5015,13 +5018,13 @@
         <v>106632</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5052,13 @@
         <v>106387</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M21" s="7">
         <v>100</v>
@@ -5064,13 +5067,13 @@
         <v>106387</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5101,13 @@
         <v>51501</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -5113,13 +5116,13 @@
         <v>51501</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5201,13 @@
         <v>25202</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -5213,13 +5216,13 @@
         <v>25202</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5250,13 @@
         <v>39834</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -5262,13 +5265,13 @@
         <v>39834</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5299,13 @@
         <v>29932</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -5311,13 +5314,13 @@
         <v>29932</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,13 +5348,13 @@
         <v>9912</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M27" s="7">
         <v>9</v>
@@ -5360,13 +5363,13 @@
         <v>9912</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5448,13 @@
         <v>38895</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -5460,13 +5463,13 @@
         <v>38895</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,13 +5497,13 @@
         <v>55636</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -5509,13 +5512,13 @@
         <v>55636</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5546,13 @@
         <v>29299</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M31" s="7">
         <v>28</v>
@@ -5558,13 +5561,13 @@
         <v>29299</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,13 +5595,13 @@
         <v>12316</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -5607,13 +5610,13 @@
         <v>12316</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5695,13 @@
         <v>71164</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M34" s="7">
         <v>65</v>
@@ -5707,13 +5710,13 @@
         <v>71164</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5744,13 @@
         <v>132521</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M35" s="7">
         <v>117</v>
@@ -5756,13 +5759,13 @@
         <v>132521</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5793,13 @@
         <v>85109</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M36" s="7">
         <v>77</v>
@@ -5805,13 +5808,13 @@
         <v>85109</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5842,13 @@
         <v>63041</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -5854,13 +5857,13 @@
         <v>63041</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,7 +5917,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -5939,13 +5942,13 @@
         <v>75917</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M39" s="7">
         <v>69</v>
@@ -5954,13 +5957,13 @@
         <v>75917</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,13 +5991,13 @@
         <v>137767</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M40" s="7">
         <v>124</v>
@@ -6003,13 +6006,13 @@
         <v>137767</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,13 +6040,13 @@
         <v>99737</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M41" s="7">
         <v>89</v>
@@ -6052,13 +6055,13 @@
         <v>99737</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6089,13 @@
         <v>47764</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M42" s="7">
         <v>43</v>
@@ -6101,13 +6104,13 @@
         <v>47764</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,13 +6189,13 @@
         <v>342072</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M44" s="7">
         <v>312</v>
@@ -6201,13 +6204,13 @@
         <v>342072</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6238,13 @@
         <v>637154</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M45" s="7">
         <v>583</v>
@@ -6250,13 +6253,13 @@
         <v>637154</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,13 +6287,13 @@
         <v>443451</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M46" s="7">
         <v>408</v>
@@ -6299,13 +6302,13 @@
         <v>443451</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,13 +6336,13 @@
         <v>241443</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M47" s="7">
         <v>217</v>
@@ -6348,13 +6351,13 @@
         <v>241443</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,7 +6411,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -6432,7 +6435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B03EDB3-C79B-42BD-930D-FB9A4731EC1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB728AC5-DFC0-4F62-9E8E-ECDDDF25D75D}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6449,7 +6452,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6569,13 +6572,13 @@
         <v>36957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6584,13 +6587,13 @@
         <v>36957</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,13 +6621,13 @@
         <v>41811</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -6633,13 +6636,13 @@
         <v>41811</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6670,13 @@
         <v>49198</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -6682,13 +6685,13 @@
         <v>49198</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,13 +6719,13 @@
         <v>16447</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -6731,13 +6734,13 @@
         <v>16447</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6819,13 @@
         <v>54020</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -6831,13 +6834,13 @@
         <v>54020</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,13 +6868,13 @@
         <v>138064</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -6880,13 +6883,13 @@
         <v>138064</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6917,13 @@
         <v>45627</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M11" s="7">
         <v>41</v>
@@ -6929,13 +6932,13 @@
         <v>45627</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,13 +6966,13 @@
         <v>28465</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -6978,13 +6981,13 @@
         <v>28465</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,13 +7066,13 @@
         <v>41553</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -7078,13 +7081,13 @@
         <v>41553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7112,13 +7115,13 @@
         <v>79386</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M15" s="7">
         <v>77</v>
@@ -7127,13 +7130,13 @@
         <v>79386</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7164,13 @@
         <v>46225</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>251</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -7176,13 +7179,13 @@
         <v>46225</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,13 +7213,13 @@
         <v>20834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>49</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -7225,13 +7228,13 @@
         <v>20834</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>49</v>
+        <v>255</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,13 +7313,13 @@
         <v>49524</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -7325,13 +7328,13 @@
         <v>49524</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7359,13 +7362,13 @@
         <v>77314</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>152</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M20" s="7">
         <v>70</v>
@@ -7374,13 +7377,13 @@
         <v>77314</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7408,13 +7411,13 @@
         <v>50093</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M21" s="7">
         <v>45</v>
@@ -7423,13 +7426,13 @@
         <v>50093</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7457,13 +7460,13 @@
         <v>27057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -7472,13 +7475,13 @@
         <v>27057</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,13 +7560,13 @@
         <v>47563</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
@@ -7572,13 +7575,13 @@
         <v>47563</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,13 +7609,13 @@
         <v>42223</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -7621,13 +7624,13 @@
         <v>42223</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7655,13 +7658,13 @@
         <v>16948</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -7670,13 +7673,13 @@
         <v>16948</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,13 +7707,13 @@
         <v>7959</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -7719,13 +7722,13 @@
         <v>7959</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,13 +7807,13 @@
         <v>41462</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -7819,13 +7822,13 @@
         <v>41462</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7853,13 +7856,13 @@
         <v>49308</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M30" s="7">
         <v>47</v>
@@ -7868,13 +7871,13 @@
         <v>49308</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7902,13 +7905,13 @@
         <v>21466</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M31" s="7">
         <v>21</v>
@@ -7917,13 +7920,13 @@
         <v>21466</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +7954,13 @@
         <v>24206</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M32" s="7">
         <v>23</v>
@@ -7966,13 +7969,13 @@
         <v>24206</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8051,13 +8054,13 @@
         <v>61631</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>111</v>
+        <v>295</v>
       </c>
       <c r="M34" s="7">
         <v>52</v>
@@ -8066,13 +8069,13 @@
         <v>61631</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>111</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8100,13 +8103,13 @@
         <v>123527</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M35" s="7">
         <v>112</v>
@@ -8115,13 +8118,13 @@
         <v>123527</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8149,13 +8152,13 @@
         <v>67947</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M36" s="7">
         <v>62</v>
@@ -8164,13 +8167,13 @@
         <v>67947</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8198,13 +8201,13 @@
         <v>35419</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M37" s="7">
         <v>31</v>
@@ -8213,13 +8216,13 @@
         <v>35419</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8273,7 +8276,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -8298,13 +8301,13 @@
         <v>96281</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>303</v>
+        <v>178</v>
       </c>
       <c r="M39" s="7">
         <v>81</v>
@@ -8313,13 +8316,13 @@
         <v>96281</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>303</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8347,13 +8350,13 @@
         <v>154394</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M40" s="7">
         <v>135</v>
@@ -8362,13 +8365,13 @@
         <v>154394</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8396,13 +8399,13 @@
         <v>114797</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M41" s="7">
         <v>101</v>
@@ -8411,13 +8414,13 @@
         <v>114797</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8445,13 +8448,13 @@
         <v>48522</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M42" s="7">
         <v>43</v>
@@ -8460,13 +8463,13 @@
         <v>48522</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8545,13 +8548,13 @@
         <v>428991</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M44" s="7">
         <v>376</v>
@@ -8560,13 +8563,13 @@
         <v>428991</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8594,13 +8597,13 @@
         <v>706027</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M45" s="7">
         <v>647</v>
@@ -8609,13 +8612,13 @@
         <v>706027</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8643,13 +8646,13 @@
         <v>412300</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M46" s="7">
         <v>380</v>
@@ -8658,13 +8661,13 @@
         <v>412300</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8692,13 +8695,13 @@
         <v>208909</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M47" s="7">
         <v>191</v>
@@ -8707,13 +8710,13 @@
         <v>208909</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8767,7 +8770,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -8791,7 +8794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0A5A91-4A77-455F-9354-EA6249560254}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017CA665-D9E0-4E73-81CF-2CF7FACA013D}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8808,7 +8811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8928,13 +8931,13 @@
         <v>34239</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -8943,13 +8946,13 @@
         <v>34239</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8977,13 +8980,13 @@
         <v>39832</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>87</v>
@@ -8992,13 +8995,13 @@
         <v>39832</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9026,13 +9029,13 @@
         <v>14068</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
@@ -9041,13 +9044,13 @@
         <v>14068</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9075,13 +9078,13 @@
         <v>24000</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>155</v>
+        <v>337</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -9090,13 +9093,13 @@
         <v>24000</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9175,13 +9178,13 @@
         <v>115839</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M9" s="7">
         <v>166</v>
@@ -9190,13 +9193,13 @@
         <v>115839</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9224,13 +9227,13 @@
         <v>71183</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>96</v>
@@ -9239,13 +9242,13 @@
         <v>71183</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9273,13 +9276,13 @@
         <v>27274</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -9288,13 +9291,13 @@
         <v>27274</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9322,13 +9325,13 @@
         <v>23568</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>346</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M12" s="7">
         <v>36</v>
@@ -9337,13 +9340,13 @@
         <v>23568</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>346</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9422,13 +9425,13 @@
         <v>54652</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>97</v>
@@ -9437,13 +9440,13 @@
         <v>54652</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9471,13 +9474,13 @@
         <v>38317</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M15" s="7">
         <v>63</v>
@@ -9486,13 +9489,13 @@
         <v>38317</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9520,13 +9523,13 @@
         <v>29512</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -9535,13 +9538,13 @@
         <v>29512</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9569,13 +9572,13 @@
         <v>22786</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -9584,13 +9587,13 @@
         <v>22786</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9669,13 +9672,13 @@
         <v>74871</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -9684,13 +9687,13 @@
         <v>74871</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9718,13 +9721,13 @@
         <v>50388</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -9733,13 +9736,13 @@
         <v>50388</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9767,13 +9770,13 @@
         <v>23797</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -9782,13 +9785,13 @@
         <v>23797</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9816,13 +9819,13 @@
         <v>20066</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -9831,13 +9834,13 @@
         <v>20066</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9916,13 +9919,13 @@
         <v>37746</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M24" s="7">
         <v>93</v>
@@ -9931,13 +9934,13 @@
         <v>37746</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9965,13 +9968,13 @@
         <v>46392</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>375</v>
+        <v>97</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -9980,13 +9983,13 @@
         <v>46392</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>375</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10014,13 +10017,13 @@
         <v>33613</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M26" s="7">
         <v>76</v>
@@ -10029,13 +10032,13 @@
         <v>33613</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10063,13 +10066,13 @@
         <v>4941</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -10078,13 +10081,13 @@
         <v>4941</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10163,13 +10166,13 @@
         <v>37307</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M29" s="7">
         <v>90</v>
@@ -10178,13 +10181,13 @@
         <v>37307</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10212,13 +10215,13 @@
         <v>35762</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M30" s="7">
         <v>65</v>
@@ -10227,13 +10230,13 @@
         <v>35762</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10261,13 +10264,13 @@
         <v>34744</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M31" s="7">
         <v>65</v>
@@ -10276,13 +10279,13 @@
         <v>34744</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10310,13 +10313,13 @@
         <v>12067</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>394</v>
+        <v>189</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
@@ -10325,13 +10328,13 @@
         <v>12067</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>394</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10410,13 +10413,13 @@
         <v>73627</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>396</v>
+        <v>58</v>
       </c>
       <c r="M34" s="7">
         <v>112</v>
@@ -10425,13 +10428,13 @@
         <v>73627</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>396</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10632,7 +10635,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -10804,13 +10807,13 @@
         <v>18149</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M42" s="7">
         <v>23</v>
@@ -10819,13 +10822,13 @@
         <v>18149</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10904,13 +10907,13 @@
         <v>498313</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>149</v>
+        <v>419</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M44" s="7">
         <v>867</v>
@@ -10919,13 +10922,13 @@
         <v>498313</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>149</v>
+        <v>419</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10953,13 +10956,13 @@
         <v>562797</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M45" s="7">
         <v>765</v>
@@ -10968,13 +10971,13 @@
         <v>562797</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -11002,13 +11005,13 @@
         <v>339034</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>422</v>
+        <v>179</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M46" s="7">
         <v>548</v>
@@ -11017,13 +11020,13 @@
         <v>339034</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>422</v>
+        <v>179</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11051,13 +11054,13 @@
         <v>177837</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M47" s="7">
         <v>279</v>
@@ -11066,13 +11069,13 @@
         <v>177837</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11126,7 +11129,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43619261-64B7-4C1C-AB91-5550734061C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A68E2B8-42D2-4DF8-8569-F7F8AD16F545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{372D7D98-A4A0-4B53-AE45-7A5222C7CE22}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EE0AC705-F63A-49E5-AC37-367CA877B3A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="439">
   <si>
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2007 (Tasa respuesta: 19,14%)</t>
   </si>
@@ -440,6 +440,42 @@
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
   </si>
   <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
     <t>18,24%</t>
   </si>
   <si>
@@ -506,40 +542,40 @@
     <t>9,36%</t>
   </si>
   <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
   </si>
   <si>
     <t>24,03%</t>
@@ -893,9 +929,6 @@
     <t>38,45%</t>
   </si>
   <si>
-    <t>36,14%</t>
-  </si>
-  <si>
     <t>27,89%</t>
   </si>
   <si>
@@ -911,9 +944,6 @@
     <t>23,25%</t>
   </si>
   <si>
-    <t>17,74%</t>
-  </si>
-  <si>
     <t>11,97%</t>
   </si>
   <si>
@@ -1025,307 +1055,307 @@
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
   </si>
   <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
   </si>
   <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
   </si>
   <si>
     <t>6,42%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4377DCA-6CEE-4EF7-9731-7FBC0516282B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F2540B-980D-4A59-8214-1A3633C70B84}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4096,7 +4126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5AFBDD-606A-4F00-B413-5A813B1CC090}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F85F91-8873-4345-B49C-8925923AEA10}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4227,30 +4257,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="I4" s="7">
+        <v>36092</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="N4" s="7">
+        <v>36092</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,30 +4306,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="I5" s="7">
+        <v>38985</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="N5" s="7">
+        <v>38985</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,30 +4355,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="I6" s="7">
+        <v>44227</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="N6" s="7">
+        <v>44227</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,30 +4404,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="I7" s="7">
+        <v>26273</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="N7" s="7">
+        <v>26273</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,30 +4453,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="I8" s="7">
+        <v>145577</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="N8" s="7">
+        <v>145577</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4510,13 @@
         <v>39820</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -4475,13 +4525,13 @@
         <v>39820</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4559,13 @@
         <v>89861</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -4524,13 +4574,13 @@
         <v>89861</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4608,13 @@
         <v>54802</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -4573,13 +4623,13 @@
         <v>54802</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,10 +4657,10 @@
         <v>33842</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>95</v>
@@ -4622,10 +4672,10 @@
         <v>33842</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>95</v>
@@ -4707,13 +4757,13 @@
         <v>22823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -4722,13 +4772,13 @@
         <v>22823</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4806,13 @@
         <v>74903</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M15" s="7">
         <v>68</v>
@@ -4771,13 +4821,13 @@
         <v>74903</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4855,13 @@
         <v>38185</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -4820,13 +4870,13 @@
         <v>38185</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,10 +4904,10 @@
         <v>23066</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>42</v>
@@ -4869,10 +4919,10 @@
         <v>23066</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>42</v>
@@ -4948,34 +4998,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I19" s="7">
-        <v>68250</v>
+        <v>32158</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="M19" s="7">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="N19" s="7">
-        <v>68250</v>
+        <v>32158</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,34 +5047,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="I20" s="7">
-        <v>106632</v>
+        <v>67647</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="N20" s="7">
-        <v>106632</v>
+        <v>67647</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,34 +5096,34 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I21" s="7">
-        <v>106387</v>
+        <v>62159</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="M21" s="7">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N21" s="7">
-        <v>106387</v>
+        <v>62159</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,34 +5145,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I22" s="7">
-        <v>51501</v>
+        <v>25228</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="M22" s="7">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="N22" s="7">
-        <v>51501</v>
+        <v>25228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,10 +5194,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="I23" s="7">
-        <v>332770</v>
+        <v>187192</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -5159,10 +5209,10 @@
         <v>27</v>
       </c>
       <c r="M23" s="7">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="N23" s="7">
-        <v>332770</v>
+        <v>187192</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -5201,13 +5251,13 @@
         <v>25202</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>82</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -5216,13 +5266,13 @@
         <v>25202</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>82</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5300,13 @@
         <v>39834</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -5265,13 +5315,13 @@
         <v>39834</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5349,13 @@
         <v>29932</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -5314,13 +5364,13 @@
         <v>29932</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5398,13 @@
         <v>9912</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>9</v>
@@ -5363,13 +5413,13 @@
         <v>9912</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5498,13 @@
         <v>38895</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -5463,13 +5513,13 @@
         <v>38895</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,13 +5547,13 @@
         <v>55636</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -5512,13 +5562,13 @@
         <v>55636</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5596,13 @@
         <v>29299</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="M31" s="7">
         <v>28</v>
@@ -5561,13 +5611,13 @@
         <v>29299</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5645,13 @@
         <v>12316</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -5610,13 +5660,13 @@
         <v>12316</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5745,13 @@
         <v>71164</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="M34" s="7">
         <v>65</v>
@@ -5710,13 +5760,13 @@
         <v>71164</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,13 +5794,13 @@
         <v>132521</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="M35" s="7">
         <v>117</v>
@@ -5759,13 +5809,13 @@
         <v>132521</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5843,13 @@
         <v>85109</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="M36" s="7">
         <v>77</v>
@@ -5808,13 +5858,13 @@
         <v>85109</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5892,13 @@
         <v>63041</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -5857,13 +5907,13 @@
         <v>63041</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,10 +5995,10 @@
         <v>126</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="M39" s="7">
         <v>69</v>
@@ -5960,10 +6010,10 @@
         <v>126</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +6041,13 @@
         <v>137767</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="M40" s="7">
         <v>124</v>
@@ -6006,13 +6056,13 @@
         <v>137767</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,13 +6090,13 @@
         <v>99737</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="M41" s="7">
         <v>89</v>
@@ -6055,13 +6105,13 @@
         <v>99737</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6139,13 @@
         <v>47764</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="M42" s="7">
         <v>43</v>
@@ -6104,13 +6154,13 @@
         <v>47764</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6239,13 @@
         <v>342072</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="M44" s="7">
         <v>312</v>
@@ -6204,13 +6254,13 @@
         <v>342072</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6288,13 @@
         <v>637154</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="M45" s="7">
         <v>583</v>
@@ -6253,13 +6303,13 @@
         <v>637154</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6337,13 @@
         <v>443451</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="M46" s="7">
         <v>408</v>
@@ -6302,13 +6352,13 @@
         <v>443451</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6386,13 @@
         <v>241443</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="M47" s="7">
         <v>217</v>
@@ -6351,13 +6401,13 @@
         <v>241443</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,7 +6485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB728AC5-DFC0-4F62-9E8E-ECDDDF25D75D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C48A726-D39F-4C04-A11F-637A1CC8EEFB}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6452,7 +6502,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6572,13 +6622,13 @@
         <v>36957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6587,13 +6637,13 @@
         <v>36957</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,13 +6671,13 @@
         <v>41811</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -6636,13 +6686,13 @@
         <v>41811</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,13 +6720,13 @@
         <v>49198</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -6685,13 +6735,13 @@
         <v>49198</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,13 +6769,13 @@
         <v>16447</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -6734,13 +6784,13 @@
         <v>16447</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6819,13 +6869,13 @@
         <v>54020</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -6834,13 +6884,13 @@
         <v>54020</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,13 +6918,13 @@
         <v>138064</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -6883,13 +6933,13 @@
         <v>138064</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6917,13 +6967,13 @@
         <v>45627</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>41</v>
@@ -6932,13 +6982,13 @@
         <v>45627</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6966,13 +7016,13 @@
         <v>28465</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -6981,13 +7031,13 @@
         <v>28465</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,13 +7116,13 @@
         <v>41553</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -7081,13 +7131,13 @@
         <v>41553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7115,13 +7165,13 @@
         <v>79386</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="M15" s="7">
         <v>77</v>
@@ -7130,13 +7180,13 @@
         <v>79386</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,10 +7214,10 @@
         <v>46225</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>70</v>
@@ -7179,10 +7229,10 @@
         <v>46225</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>70</v>
@@ -7213,13 +7263,13 @@
         <v>20834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -7228,13 +7278,13 @@
         <v>20834</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7363,13 @@
         <v>49524</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -7328,13 +7378,13 @@
         <v>49524</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7362,13 +7412,13 @@
         <v>77314</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>70</v>
@@ -7377,13 +7427,13 @@
         <v>77314</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,13 +7461,13 @@
         <v>50093</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="M21" s="7">
         <v>45</v>
@@ -7426,13 +7476,13 @@
         <v>50093</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7510,13 @@
         <v>27057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -7475,13 +7525,13 @@
         <v>27057</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,13 +7610,13 @@
         <v>47563</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
@@ -7575,13 +7625,13 @@
         <v>47563</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,13 +7659,13 @@
         <v>42223</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -7624,13 +7674,13 @@
         <v>42223</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7658,13 +7708,13 @@
         <v>16948</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -7673,13 +7723,13 @@
         <v>16948</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,13 +7757,13 @@
         <v>7959</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -7722,13 +7772,13 @@
         <v>7959</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7807,13 +7857,13 @@
         <v>41462</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -7822,13 +7872,13 @@
         <v>41462</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,13 +7906,13 @@
         <v>49308</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>284</v>
+        <v>170</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="M30" s="7">
         <v>47</v>
@@ -7871,13 +7921,13 @@
         <v>49308</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>284</v>
+        <v>170</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7905,13 +7955,13 @@
         <v>21466</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M31" s="7">
         <v>21</v>
@@ -7920,13 +7970,13 @@
         <v>21466</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +8004,13 @@
         <v>24206</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="M32" s="7">
         <v>23</v>
@@ -7969,13 +8019,13 @@
         <v>24206</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8054,13 +8104,13 @@
         <v>61631</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="M34" s="7">
         <v>52</v>
@@ -8069,13 +8119,13 @@
         <v>61631</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,13 +8153,13 @@
         <v>123527</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="M35" s="7">
         <v>112</v>
@@ -8118,13 +8168,13 @@
         <v>123527</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8152,13 +8202,13 @@
         <v>67947</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="M36" s="7">
         <v>62</v>
@@ -8167,13 +8217,13 @@
         <v>67947</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8201,13 +8251,13 @@
         <v>35419</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="M37" s="7">
         <v>31</v>
@@ -8216,13 +8266,13 @@
         <v>35419</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8301,13 +8351,13 @@
         <v>96281</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="M39" s="7">
         <v>81</v>
@@ -8316,13 +8366,13 @@
         <v>96281</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8350,13 +8400,13 @@
         <v>154394</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="M40" s="7">
         <v>135</v>
@@ -8365,13 +8415,13 @@
         <v>154394</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8399,13 +8449,13 @@
         <v>114797</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="M41" s="7">
         <v>101</v>
@@ -8414,13 +8464,13 @@
         <v>114797</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8448,13 +8498,13 @@
         <v>48522</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="M42" s="7">
         <v>43</v>
@@ -8463,13 +8513,13 @@
         <v>48522</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8548,13 +8598,13 @@
         <v>428991</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="M44" s="7">
         <v>376</v>
@@ -8563,13 +8613,13 @@
         <v>428991</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8597,13 +8647,13 @@
         <v>706027</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="M45" s="7">
         <v>647</v>
@@ -8612,13 +8662,13 @@
         <v>706027</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8646,13 +8696,13 @@
         <v>412300</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="M46" s="7">
         <v>380</v>
@@ -8661,13 +8711,13 @@
         <v>412300</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8695,13 +8745,13 @@
         <v>208909</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M47" s="7">
         <v>191</v>
@@ -8710,13 +8760,13 @@
         <v>208909</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8794,7 +8844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017CA665-D9E0-4E73-81CF-2CF7FACA013D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CA38AD-47B9-4B90-AE63-180615EFE91B}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8811,7 +8861,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8928,31 +8978,31 @@
         <v>70</v>
       </c>
       <c r="I4" s="7">
-        <v>34239</v>
+        <v>35198</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
       </c>
       <c r="N4" s="7">
-        <v>34239</v>
+        <v>35198</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8977,31 +9027,31 @@
         <v>87</v>
       </c>
       <c r="I5" s="7">
-        <v>39832</v>
+        <v>41505</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>87</v>
       </c>
       <c r="N5" s="7">
-        <v>39832</v>
+        <v>41505</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9026,31 +9076,31 @@
         <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>14068</v>
+        <v>14584</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
       </c>
       <c r="N6" s="7">
-        <v>14068</v>
+        <v>14584</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9075,31 +9125,31 @@
         <v>49</v>
       </c>
       <c r="I7" s="7">
-        <v>24000</v>
+        <v>24805</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
       </c>
       <c r="N7" s="7">
-        <v>24000</v>
+        <v>24805</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9124,7 +9174,7 @@
         <v>236</v>
       </c>
       <c r="I8" s="7">
-        <v>112139</v>
+        <v>116092</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
@@ -9139,7 +9189,7 @@
         <v>236</v>
       </c>
       <c r="N8" s="7">
-        <v>112139</v>
+        <v>116092</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>27</v>
@@ -9175,31 +9225,31 @@
         <v>166</v>
       </c>
       <c r="I9" s="7">
-        <v>115839</v>
+        <v>107149</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="M9" s="7">
         <v>166</v>
       </c>
       <c r="N9" s="7">
-        <v>115839</v>
+        <v>107149</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9224,31 +9274,31 @@
         <v>96</v>
       </c>
       <c r="I10" s="7">
-        <v>71183</v>
+        <v>66129</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>96</v>
       </c>
       <c r="N10" s="7">
-        <v>71183</v>
+        <v>66129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9273,31 +9323,31 @@
         <v>36</v>
       </c>
       <c r="I11" s="7">
-        <v>27274</v>
+        <v>25402</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
       </c>
       <c r="N11" s="7">
-        <v>27274</v>
+        <v>25402</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9322,31 +9372,31 @@
         <v>36</v>
       </c>
       <c r="I12" s="7">
-        <v>23568</v>
+        <v>21894</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>357</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="M12" s="7">
         <v>36</v>
       </c>
       <c r="N12" s="7">
-        <v>23568</v>
+        <v>21894</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>357</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9371,7 +9421,7 @@
         <v>334</v>
       </c>
       <c r="I13" s="7">
-        <v>237864</v>
+        <v>220574</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>27</v>
@@ -9386,7 +9436,7 @@
         <v>334</v>
       </c>
       <c r="N13" s="7">
-        <v>237864</v>
+        <v>220574</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>27</v>
@@ -9422,31 +9472,31 @@
         <v>97</v>
       </c>
       <c r="I14" s="7">
-        <v>54652</v>
+        <v>50491</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>97</v>
       </c>
       <c r="N14" s="7">
-        <v>54652</v>
+        <v>50491</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9471,31 +9521,31 @@
         <v>63</v>
       </c>
       <c r="I15" s="7">
-        <v>38317</v>
+        <v>35708</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="M15" s="7">
         <v>63</v>
       </c>
       <c r="N15" s="7">
-        <v>38317</v>
+        <v>35708</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9520,31 +9570,31 @@
         <v>48</v>
       </c>
       <c r="I16" s="7">
-        <v>29512</v>
+        <v>27457</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
       </c>
       <c r="N16" s="7">
-        <v>29512</v>
+        <v>27457</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9569,31 +9619,31 @@
         <v>32</v>
       </c>
       <c r="I17" s="7">
-        <v>22786</v>
+        <v>21281</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
       </c>
       <c r="N17" s="7">
-        <v>22786</v>
+        <v>21281</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9618,7 +9668,7 @@
         <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>145267</v>
+        <v>134937</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>27</v>
@@ -9633,7 +9683,7 @@
         <v>240</v>
       </c>
       <c r="N18" s="7">
-        <v>145267</v>
+        <v>134937</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>27</v>
@@ -9669,31 +9719,31 @@
         <v>134</v>
       </c>
       <c r="I19" s="7">
-        <v>74871</v>
+        <v>93788</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>186</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
       </c>
       <c r="N19" s="7">
-        <v>74871</v>
+        <v>93788</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>363</v>
+        <v>186</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9718,31 +9768,31 @@
         <v>90</v>
       </c>
       <c r="I20" s="7">
-        <v>50388</v>
+        <v>46741</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
       </c>
       <c r="N20" s="7">
-        <v>50388</v>
+        <v>46741</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9767,31 +9817,31 @@
         <v>43</v>
       </c>
       <c r="I21" s="7">
-        <v>23797</v>
+        <v>22308</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
       </c>
       <c r="N21" s="7">
-        <v>23797</v>
+        <v>22308</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9816,31 +9866,31 @@
         <v>34</v>
       </c>
       <c r="I22" s="7">
-        <v>20066</v>
+        <v>18530</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
       </c>
       <c r="N22" s="7">
-        <v>20066</v>
+        <v>18530</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9865,7 +9915,7 @@
         <v>301</v>
       </c>
       <c r="I23" s="7">
-        <v>169122</v>
+        <v>181368</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -9880,7 +9930,7 @@
         <v>301</v>
       </c>
       <c r="N23" s="7">
-        <v>169122</v>
+        <v>181368</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -9916,31 +9966,31 @@
         <v>93</v>
       </c>
       <c r="I24" s="7">
-        <v>37746</v>
+        <v>34133</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="M24" s="7">
         <v>93</v>
       </c>
       <c r="N24" s="7">
-        <v>37746</v>
+        <v>34133</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9965,31 +10015,31 @@
         <v>113</v>
       </c>
       <c r="I25" s="7">
-        <v>46392</v>
+        <v>42620</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
       </c>
       <c r="N25" s="7">
-        <v>46392</v>
+        <v>42620</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10014,31 +10064,31 @@
         <v>76</v>
       </c>
       <c r="I26" s="7">
-        <v>33613</v>
+        <v>30714</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="M26" s="7">
         <v>76</v>
       </c>
       <c r="N26" s="7">
-        <v>33613</v>
+        <v>30714</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10063,31 +10113,31 @@
         <v>11</v>
       </c>
       <c r="I27" s="7">
-        <v>4941</v>
+        <v>4512</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
       </c>
       <c r="N27" s="7">
-        <v>4941</v>
+        <v>4512</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10112,7 +10162,7 @@
         <v>293</v>
       </c>
       <c r="I28" s="7">
-        <v>122692</v>
+        <v>111978</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>27</v>
@@ -10127,7 +10177,7 @@
         <v>293</v>
       </c>
       <c r="N28" s="7">
-        <v>122692</v>
+        <v>111978</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>27</v>
@@ -10163,31 +10213,31 @@
         <v>90</v>
       </c>
       <c r="I29" s="7">
-        <v>37307</v>
+        <v>34856</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="M29" s="7">
         <v>90</v>
       </c>
       <c r="N29" s="7">
-        <v>37307</v>
+        <v>34856</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10212,31 +10262,31 @@
         <v>65</v>
       </c>
       <c r="I30" s="7">
-        <v>35762</v>
+        <v>33313</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="M30" s="7">
         <v>65</v>
       </c>
       <c r="N30" s="7">
-        <v>35762</v>
+        <v>33313</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10261,31 +10311,31 @@
         <v>65</v>
       </c>
       <c r="I31" s="7">
-        <v>34744</v>
+        <v>32422</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="M31" s="7">
         <v>65</v>
       </c>
       <c r="N31" s="7">
-        <v>34744</v>
+        <v>32422</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10310,31 +10360,31 @@
         <v>21</v>
       </c>
       <c r="I32" s="7">
-        <v>12067</v>
+        <v>11163</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>189</v>
+        <v>405</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
       </c>
       <c r="N32" s="7">
-        <v>12067</v>
+        <v>11163</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>189</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10359,7 +10409,7 @@
         <v>241</v>
       </c>
       <c r="I33" s="7">
-        <v>119880</v>
+        <v>111753</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>27</v>
@@ -10374,7 +10424,7 @@
         <v>241</v>
       </c>
       <c r="N33" s="7">
-        <v>119880</v>
+        <v>111753</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>27</v>
@@ -10410,31 +10460,31 @@
         <v>112</v>
       </c>
       <c r="I34" s="7">
-        <v>73627</v>
+        <v>67331</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>199</v>
+        <v>406</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>58</v>
+        <v>408</v>
       </c>
       <c r="M34" s="7">
         <v>112</v>
       </c>
       <c r="N34" s="7">
-        <v>73627</v>
+        <v>67331</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>199</v>
+        <v>406</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>58</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10459,31 +10509,31 @@
         <v>118</v>
       </c>
       <c r="I35" s="7">
-        <v>189022</v>
+        <v>278086</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="M35" s="7">
         <v>118</v>
       </c>
       <c r="N35" s="7">
-        <v>189022</v>
+        <v>278086</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10508,31 +10558,31 @@
         <v>145</v>
       </c>
       <c r="I36" s="7">
-        <v>96000</v>
+        <v>89735</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="M36" s="7">
         <v>145</v>
       </c>
       <c r="N36" s="7">
-        <v>96000</v>
+        <v>89735</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10557,31 +10607,31 @@
         <v>73</v>
       </c>
       <c r="I37" s="7">
-        <v>52259</v>
+        <v>49037</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="M37" s="7">
         <v>73</v>
       </c>
       <c r="N37" s="7">
-        <v>52259</v>
+        <v>49037</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10606,7 +10656,7 @@
         <v>448</v>
       </c>
       <c r="I38" s="7">
-        <v>410909</v>
+        <v>484189</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>27</v>
@@ -10621,7 +10671,7 @@
         <v>448</v>
       </c>
       <c r="N38" s="7">
-        <v>410909</v>
+        <v>484189</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>27</v>
@@ -10657,31 +10707,31 @@
         <v>105</v>
       </c>
       <c r="I39" s="7">
-        <v>70033</v>
+        <v>58742</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>407</v>
+        <v>140</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="M39" s="7">
         <v>105</v>
       </c>
       <c r="N39" s="7">
-        <v>70033</v>
+        <v>58742</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>407</v>
+        <v>140</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10706,31 +10756,31 @@
         <v>133</v>
       </c>
       <c r="I40" s="7">
-        <v>91900</v>
+        <v>76463</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="M40" s="7">
         <v>133</v>
       </c>
       <c r="N40" s="7">
-        <v>91900</v>
+        <v>76463</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10755,31 +10805,31 @@
         <v>105</v>
       </c>
       <c r="I41" s="7">
-        <v>80026</v>
+        <v>67079</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="M41" s="7">
         <v>105</v>
       </c>
       <c r="N41" s="7">
-        <v>80026</v>
+        <v>67079</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10804,31 +10854,31 @@
         <v>23</v>
       </c>
       <c r="I42" s="7">
-        <v>18149</v>
+        <v>15276</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="M42" s="7">
         <v>23</v>
       </c>
       <c r="N42" s="7">
-        <v>18149</v>
+        <v>15276</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10853,7 +10903,7 @@
         <v>366</v>
       </c>
       <c r="I43" s="7">
-        <v>260108</v>
+        <v>217559</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>27</v>
@@ -10868,7 +10918,7 @@
         <v>366</v>
       </c>
       <c r="N43" s="7">
-        <v>260108</v>
+        <v>217559</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>27</v>
@@ -10904,31 +10954,31 @@
         <v>867</v>
       </c>
       <c r="I44" s="7">
-        <v>498313</v>
+        <v>481689</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>419</v>
+        <v>238</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="M44" s="7">
         <v>867</v>
       </c>
       <c r="N44" s="7">
-        <v>498313</v>
+        <v>481689</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>419</v>
+        <v>238</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10953,31 +11003,31 @@
         <v>765</v>
       </c>
       <c r="I45" s="7">
-        <v>562797</v>
+        <v>620565</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="M45" s="7">
         <v>765</v>
       </c>
       <c r="N45" s="7">
-        <v>562797</v>
+        <v>620565</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -11002,31 +11052,31 @@
         <v>548</v>
       </c>
       <c r="I46" s="7">
-        <v>339034</v>
+        <v>309699</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>179</v>
+        <v>433</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="M46" s="7">
         <v>548</v>
       </c>
       <c r="N46" s="7">
-        <v>339034</v>
+        <v>309699</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>179</v>
+        <v>433</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11051,31 +11101,31 @@
         <v>279</v>
       </c>
       <c r="I47" s="7">
-        <v>177837</v>
+        <v>166496</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="M47" s="7">
         <v>279</v>
       </c>
       <c r="N47" s="7">
-        <v>177837</v>
+        <v>166496</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11100,7 +11150,7 @@
         <v>2459</v>
       </c>
       <c r="I48" s="7">
-        <v>1577981</v>
+        <v>1578449</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>27</v>
@@ -11115,7 +11165,7 @@
         <v>2459</v>
       </c>
       <c r="N48" s="7">
-        <v>1577981</v>
+        <v>1578449</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>27</v>
